--- a/ProcessedData/export_to_r/gavi-trib3_XWD_export_eledata_co2.xlsx
+++ b/ProcessedData/export_to_r/gavi-trib3_XWD_export_eledata_co2.xlsx
@@ -5,17 +5,30 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kriddie\OneDrive - University of North Carolina at Chapel Hill\Documents\Ecuador2021\ProcessedData\export_to_r\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Documents/Ecuador2021/ProcessedData/export_to_r/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E6EDAAF4-1D9D-4FAE-8E18-6C79837CFE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:9_{E6EDAAF4-1D9D-4FAE-8E18-6C79837CFE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83548B57-5A91-4C94-A089-BD66E5E02CC5}"/>
   <bookViews>
-    <workbookView xWindow="30345" yWindow="270" windowWidth="22110" windowHeight="14625" xr2:uid="{09AAB2D0-A0FB-4109-A9BE-45D69EB703BE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{09AAB2D0-A0FB-4109-A9BE-45D69EB703BE}"/>
   </bookViews>
   <sheets>
     <sheet name="gavi-trib3_XWD_export_eledata_E" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -672,7 +685,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="42">
       <alignment horizontal="left"/>
@@ -681,7 +694,6 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -1062,7 +1074,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,14 +1159,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3">
         <v>-10</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>4110.3823240000002</v>
       </c>
       <c r="F2" s="3"/>
@@ -1788,7 +1800,7 @@
         <v>-1.373046875</v>
       </c>
       <c r="V13">
-        <f t="shared" ref="V13" si="3">ABS(U13)/T13</f>
+        <f t="shared" ref="V13:V14" si="3">ABS(U13)/T13</f>
         <v>7.329241347855793E-2</v>
       </c>
       <c r="W13">
@@ -1854,8 +1866,8 @@
         <v>-1.0258789687495664</v>
       </c>
       <c r="V14">
-        <f>F15-F13</f>
-        <v>-40</v>
+        <f t="shared" si="3"/>
+        <v>5.4219449304459683E-2</v>
       </c>
       <c r="W14">
         <f>D14-D11</f>
@@ -1875,7 +1887,7 @@
         <f>D14+10</f>
         <v>54.6043331230577</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>4104.1650390000004</v>
       </c>
     </row>
